--- a/Docs/Integration Test.xlsx
+++ b/Docs/Integration Test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
   <si>
     <t>Module</t>
   </si>
@@ -54,12 +54,6 @@
     <t>MainScreen</t>
   </si>
   <si>
-    <t>forcing the user to make login not set</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
     <t>MyAccount</t>
   </si>
   <si>
@@ -91,6 +85,12 @@
   </si>
   <si>
     <t xml:space="preserve">display the start time of course not set </t>
+  </si>
+  <si>
+    <t>??</t>
+  </si>
+  <si>
+    <t>UpdateUser</t>
   </si>
 </sst>
 </file>
@@ -158,7 +158,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -170,6 +170,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -466,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -514,85 +517,85 @@
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="4">
-        <v>41675</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="E4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="4">
         <v>41675</v>
       </c>
+      <c r="G4" s="5">
+        <v>41681</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="30">
       <c r="A5" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="30">
       <c r="A6" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30">
       <c r="A7" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="30">
       <c r="A8" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="30">
       <c r="A9" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>10</v>
@@ -600,13 +603,24 @@
       <c r="F9" s="4">
         <v>41680</v>
       </c>
+      <c r="G9" s="5">
+        <v>41681</v>
+      </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="30">
+      <c r="A11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/Integration Test.xlsx
+++ b/Docs/Integration Test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>Module</t>
   </si>
@@ -42,55 +42,25 @@
     <t>Closure date</t>
   </si>
   <si>
-    <t>minor</t>
-  </si>
-  <si>
     <t>bug</t>
   </si>
   <si>
     <t>open</t>
   </si>
   <si>
-    <t>MainScreen</t>
-  </si>
-  <si>
     <t>MyAccount</t>
   </si>
   <si>
     <t>display the user name at top of page not set</t>
   </si>
   <si>
-    <t>Login</t>
-  </si>
-  <si>
-    <t>Add Student</t>
-  </si>
-  <si>
-    <t>Manage Materials</t>
-  </si>
-  <si>
-    <t>Student Details</t>
-  </si>
-  <si>
-    <t>Add Material</t>
-  </si>
-  <si>
     <t>Student Materials</t>
   </si>
   <si>
-    <t>Add User</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
     <t xml:space="preserve">display the start time of course not set </t>
   </si>
   <si>
-    <t>??</t>
-  </si>
-  <si>
-    <t>UpdateUser</t>
+    <t>high</t>
   </si>
 </sst>
 </file>
@@ -469,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -513,114 +483,56 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30">
+    <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="C2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
+      </c>
+      <c r="F2" s="4">
+        <v>41675</v>
+      </c>
+      <c r="G2" s="5">
+        <v>41681</v>
+      </c>
+      <c r="H2" s="5">
+        <v>41681</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18" customHeight="1">
+    <row r="3" spans="1:8" ht="30">
       <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="E3" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="4">
-        <v>41675</v>
-      </c>
-      <c r="G4" s="5">
+      <c r="F3" s="4">
+        <v>41680</v>
+      </c>
+      <c r="G3" s="5">
         <v>41681</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="30">
-      <c r="A5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="30">
-      <c r="A6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="30">
-      <c r="A7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="30">
-      <c r="A8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="30">
-      <c r="A9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="4">
-        <v>41680</v>
-      </c>
-      <c r="G9" s="5">
+      <c r="H3" s="5">
         <v>41681</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="30">
-      <c r="A11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/Integration Test.xlsx
+++ b/Docs/Integration Test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
   <si>
     <t>Module</t>
   </si>
@@ -45,22 +45,34 @@
     <t>bug</t>
   </si>
   <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>MyAccount</t>
   </si>
   <si>
     <t>display the user name at top of page not set</t>
   </si>
   <si>
-    <t>Student Materials</t>
-  </si>
-  <si>
-    <t xml:space="preserve">display the start time of course not set </t>
-  </si>
-  <si>
     <t>high</t>
+  </si>
+  <si>
+    <t>fixed</t>
+  </si>
+  <si>
+    <t>Add Course Time</t>
+  </si>
+  <si>
+    <t>The Course name must be already exist (correctly entered)</t>
+  </si>
+  <si>
+    <t>Add Student Material</t>
+  </si>
+  <si>
+    <t>The Course may have the same start time ,in different days</t>
+  </si>
+  <si>
+    <t>Manage Materials</t>
+  </si>
+  <si>
+    <t>At Loading Page,the courses Loaded with last time table only</t>
   </si>
 </sst>
 </file>
@@ -439,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="A2" sqref="A2:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -485,19 +497,19 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F2" s="4">
         <v>41675</v>
@@ -509,30 +521,82 @@
         <v>41681</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="30">
+    <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F3" s="4">
-        <v>41680</v>
+        <v>41698</v>
       </c>
       <c r="G3" s="5">
-        <v>41681</v>
+        <v>41698</v>
       </c>
       <c r="H3" s="5">
-        <v>41681</v>
+        <v>41698</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="4">
+        <v>41698</v>
+      </c>
+      <c r="G4" s="5">
+        <v>41698</v>
+      </c>
+      <c r="H4" s="5">
+        <v>41698</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="4">
+        <v>41698</v>
+      </c>
+      <c r="G5" s="5">
+        <v>41698</v>
+      </c>
+      <c r="H5" s="5">
+        <v>41698</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/Integration Test.xlsx
+++ b/Docs/Integration Test.xlsx
@@ -454,7 +454,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H5"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -521,7 +521,7 @@
         <v>41681</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" ht="30">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -547,7 +547,7 @@
         <v>41698</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" ht="45">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -564,16 +564,16 @@
         <v>12</v>
       </c>
       <c r="F4" s="4">
-        <v>41698</v>
+        <v>41699</v>
       </c>
       <c r="G4" s="5">
-        <v>41698</v>
+        <v>41701</v>
       </c>
       <c r="H4" s="5">
-        <v>41698</v>
+        <v>41701</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" ht="30">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
